--- a/64_64_16_conf_mat.xlsx
+++ b/64_64_16_conf_mat.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rgurlek\Box\Okul\Deep Learning\Music-Classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1F662AC5-0575-406C-9374-244894C2BEA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B179D03-BDA1-4BAC-BCCF-57D0F8C01FFF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="64_64_16_conf_mat" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -115,8 +123,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +255,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -613,11 +628,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -972,11 +988,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1586,51 +1602,51 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D14">
+      <c r="D14" s="4">
         <f>SUM(D2:D13)</f>
         <v>351</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <f t="shared" ref="E14:O14" si="0">SUM(E2:E13)</f>
         <v>576</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <f t="shared" si="0"/>
         <v>853</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="4">
         <f t="shared" si="0"/>
         <v>173</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="4">
         <f t="shared" si="0"/>
         <v>161</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="4">
         <f t="shared" si="0"/>
         <v>182</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="4">
         <f t="shared" si="0"/>
         <v>233</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="4">
         <f t="shared" si="0"/>
         <v>221</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="4">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="4">
         <f t="shared" si="0"/>
         <v>272</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="4">
         <f t="shared" si="0"/>
         <v>1112</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="4">
         <f t="shared" si="0"/>
         <v>336</v>
       </c>
